--- a/DatosDafiti.xlsx
+++ b/DatosDafiti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Semillero SQA\Screenplay\MiRetoScreenplay_JessicaParra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D2AF1-4119-4628-A992-B3D072FCD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD747A8-4558-48EC-8093-B61B0D9DD211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91ED769F-3F84-4165-8A7D-2F15F890279E}"/>
   </bookViews>
@@ -91,40 +91,40 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>jessi.joha14@gmail.com</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Bolso Manos Libres Mini</t>
+  </si>
+  <si>
+    <t>1020486251</t>
+  </si>
+  <si>
+    <t>jessi.-.gonzalez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>jessi.joha14@gmail.com</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Bolso Manos Libres Mini</t>
-  </si>
-  <si>
-    <t>1036672241</t>
-  </si>
-  <si>
-    <t>jessi.-.gonzalez@hotmail.com</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -558,25 +558,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -667,12 +667,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
